--- a/Sigma - Function Generator/BOM.xlsx
+++ b/Sigma - Function Generator/BOM.xlsx
@@ -8,15 +8,15 @@
     <sheet state="visible" name="Tayda Auto Order - Export as CS" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'CONTROL BOARD'!$A$1:$E$12</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'MAIN BOARD'!$A$1:$E$37</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'CONTROL BOARD'!$A$1:$E$13</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'MAIN BOARD'!$A$1:$E$34</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="172">
   <si>
     <t>Name</t>
   </si>
@@ -126,7 +126,7 @@
     <t>B50k</t>
   </si>
   <si>
-    <t>PT1,PT2,PT3</t>
+    <t>PT2</t>
   </si>
   <si>
     <t>50K OHM Logarithmic Taper Potentiometer Round Shaft PCB 9mm</t>
@@ -135,6 +135,15 @@
     <t>https://www.taydaelectronics.com/50k-ohm-logarithmic-taper-potentiometer-round-shaft-pcb-9mm.html</t>
   </si>
   <si>
+    <t>A50k</t>
+  </si>
+  <si>
+    <t>PT1,PT3</t>
+  </si>
+  <si>
+    <t>50K OHM Linear Taper Potentiometer Round Shaft PCB 9mm</t>
+  </si>
+  <si>
     <t>1N4148</t>
   </si>
   <si>
@@ -180,13 +189,13 @@
     <t>33k</t>
   </si>
   <si>
-    <t>R3,R33</t>
+    <t>R3,R33,R32</t>
   </si>
   <si>
     <t>820k</t>
   </si>
   <si>
-    <t>R4,R5</t>
+    <t>R4,R5,R35</t>
   </si>
   <si>
     <t>220k</t>
@@ -240,19 +249,10 @@
     <t>47k</t>
   </si>
   <si>
-    <t>R29</t>
+    <t>R29,R34</t>
   </si>
   <si>
     <t>R13,R14</t>
-  </si>
-  <si>
-    <t>R32</t>
-  </si>
-  <si>
-    <t>R35</t>
-  </si>
-  <si>
-    <t>R34</t>
   </si>
   <si>
     <t>R25</t>
@@ -1067,7 +1067,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>38</v>
@@ -1080,20 +1080,35 @@
       <c r="B12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="3">
         <v>1.0</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$E$12">
-    <sortState ref="A1:E12">
-      <sortCondition descending="1" ref="C1:C12"/>
+  <autoFilter ref="$A$1:$E$13">
+    <sortState ref="A1:E13">
+      <sortCondition descending="1" ref="C1:C13"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -1107,7 +1122,7 @@
     <hyperlink r:id="rId8" ref="E9"/>
     <hyperlink r:id="rId9" ref="E10"/>
     <hyperlink r:id="rId10" ref="E11"/>
-    <hyperlink r:id="rId11" ref="E12"/>
+    <hyperlink r:id="rId11" ref="E13"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -1152,47 +1167,47 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4">
         <v>1.0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D3" s="4">
         <v>1.0</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D4" s="4">
         <v>6.0</v>
@@ -1203,16 +1218,16 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>8</v>
@@ -1220,16 +1235,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>8</v>
@@ -1237,13 +1252,13 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4">
         <v>4.0</v>
@@ -1254,13 +1269,13 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D8" s="4">
         <v>1.0</v>
@@ -1271,13 +1286,13 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D9" s="4">
         <v>2.0</v>
@@ -1291,10 +1306,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D10" s="4">
         <v>4.0</v>
@@ -1305,13 +1320,13 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D11" s="4">
         <v>3.0</v>
@@ -1325,10 +1340,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D12" s="4">
         <v>2.0</v>
@@ -1339,13 +1354,13 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4">
         <v>1.0</v>
@@ -1356,13 +1371,13 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D14" s="4">
         <v>1.0</v>
@@ -1373,13 +1388,13 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D15" s="4">
         <v>3.0</v>
@@ -1390,16 +1405,16 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D16" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>8</v>
@@ -1413,7 +1428,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17" s="4">
         <v>1.0</v>
@@ -1430,7 +1445,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18" s="4">
         <v>1.0</v>
@@ -1444,10 +1459,10 @@
         <v>10.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4">
         <v>2.0</v>
@@ -1457,14 +1472,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>53</v>
+      <c r="A20" s="4">
+        <v>100.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D20" s="4">
         <v>1.0</v>
@@ -1474,298 +1489,247 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>77</v>
+      <c r="A21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D21" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>8</v>
+        <v>5.0</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>78</v>
+      <c r="A22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="D22" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>52</v>
+      <c r="A23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="D23" s="4">
         <v>1.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>82</v>
+        <v>92</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D24" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>83</v>
+        <v>2.0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D25" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>89</v>
+      <c r="A26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="D26" s="4">
         <v>1.0</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>90</v>
+      <c r="E26" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>93</v>
+      <c r="A27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="4">
         <v>2.0</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>98</v>
+      <c r="E28" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D29" s="4">
         <v>1.0</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>105</v>
+      <c r="A30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="D30" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="4">
         <v>1.0</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>109</v>
+      <c r="E31" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D32" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>116</v>
+      <c r="A33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="D33" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>117</v>
+        <v>2.0</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="D34" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="4">
         <v>3.0</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>42</v>
+      <c r="E34" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$E$37">
-    <sortState ref="A1:E37">
-      <sortCondition descending="1" ref="C1:C37"/>
+  <autoFilter ref="$A$1:$E$34">
+    <sortState ref="A1:E34">
+      <sortCondition descending="1" ref="C1:C34"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -1802,14 +1766,11 @@
     <hyperlink r:id="rId31" ref="E32"/>
     <hyperlink r:id="rId32" ref="E33"/>
     <hyperlink r:id="rId33" ref="E34"/>
-    <hyperlink r:id="rId34" ref="E35"/>
-    <hyperlink r:id="rId35" ref="E36"/>
-    <hyperlink r:id="rId36" ref="E37"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId37"/>
+  <drawing r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -1985,7 +1946,7 @@
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B21" s="12">
         <v>10.0</v>
@@ -1993,23 +1954,23 @@
     </row>
     <row r="22">
       <c r="A22" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="12">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B23" s="12">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B24" s="12">
         <v>1.0</v>
@@ -2017,7 +1978,7 @@
     </row>
     <row r="25">
       <c r="A25" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B25" s="12">
         <v>1.0</v>
@@ -2025,7 +1986,7 @@
     </row>
     <row r="26">
       <c r="A26" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B26" s="12">
         <v>1.0</v>
@@ -2033,31 +1994,31 @@
     </row>
     <row r="27">
       <c r="A27" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B27" s="12">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B28" s="12">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B29" s="12">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B30" s="12">
         <v>1.0</v>
@@ -2065,47 +2026,47 @@
     </row>
     <row r="31">
       <c r="A31" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B31" s="12">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B32" s="12">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B33" s="12">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B34" s="12">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B35" s="12">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B36" s="12">
         <v>1.0</v>
@@ -2113,7 +2074,7 @@
     </row>
     <row r="37">
       <c r="A37" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B37" s="12">
         <v>1.0</v>
@@ -2121,59 +2082,54 @@
     </row>
     <row r="38">
       <c r="A38" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B38" s="12">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B39" s="12">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B40" s="12">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B41" s="12">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B42" s="12">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B43" s="12">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" s="12">
-        <v>2.0</v>
-      </c>
+      <c r="B44" s="13"/>
     </row>
     <row r="45">
       <c r="B45" s="13"/>
@@ -5039,9 +4995,6 @@
     </row>
     <row r="999">
       <c r="B999" s="13"/>
-    </row>
-    <row r="1000">
-      <c r="B1000" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Sigma - Function Generator/BOM.xlsx
+++ b/Sigma - Function Generator/BOM.xlsx
@@ -8,7 +8,7 @@
     <sheet state="visible" name="Tayda Auto Order - Export as CS" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'CONTROL BOARD'!$A$1:$E$13</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'CONTROL BOARD'!$A$1:$E$12</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'MAIN BOARD'!$A$1:$E$34</definedName>
   </definedNames>
   <calcPr/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="169">
   <si>
     <t>Name</t>
   </si>
@@ -126,22 +126,13 @@
     <t>B50k</t>
   </si>
   <si>
-    <t>PT2</t>
-  </si>
-  <si>
-    <t>50K OHM Logarithmic Taper Potentiometer Round Shaft PCB 9mm</t>
-  </si>
-  <si>
-    <t>https://www.taydaelectronics.com/50k-ohm-logarithmic-taper-potentiometer-round-shaft-pcb-9mm.html</t>
-  </si>
-  <si>
-    <t>A50k</t>
-  </si>
-  <si>
-    <t>PT1,PT3</t>
+    <t>PT1,PT2,PT3</t>
   </si>
   <si>
     <t>50K OHM Linear Taper Potentiometer Round Shaft PCB 9mm</t>
+  </si>
+  <si>
+    <t>https://www.taydaelectronics.com/tayda-50k-ohm-linear-taper-potentiometer-round-shaft-pcb-9mm-6-35-mm.html</t>
   </si>
   <si>
     <t>1N4148</t>
@@ -496,7 +487,7 @@
     <t>A-137</t>
   </si>
   <si>
-    <t>A-1660</t>
+    <t>A-5514</t>
   </si>
   <si>
     <t>A-157</t>
@@ -883,7 +874,7 @@
     <col customWidth="1" min="1" max="1" width="21.88"/>
     <col customWidth="1" min="2" max="2" width="35.0"/>
     <col customWidth="1" min="3" max="3" width="51.63"/>
-    <col customWidth="1" min="5" max="5" width="71.88"/>
+    <col customWidth="1" min="5" max="5" width="83.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1067,7 +1058,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>38</v>
@@ -1080,35 +1071,20 @@
       <c r="B12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="3">
         <v>1.0</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$E$13">
-    <sortState ref="A1:E13">
-      <sortCondition descending="1" ref="C1:C13"/>
+  <autoFilter ref="$A$1:$E$12">
+    <sortState ref="A1:E12">
+      <sortCondition descending="1" ref="C1:C12"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -1122,7 +1098,7 @@
     <hyperlink r:id="rId8" ref="E9"/>
     <hyperlink r:id="rId9" ref="E10"/>
     <hyperlink r:id="rId10" ref="E11"/>
-    <hyperlink r:id="rId11" ref="E13"/>
+    <hyperlink r:id="rId11" ref="E12"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -1167,47 +1143,47 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D2" s="4">
         <v>1.0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4">
         <v>1.0</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="4">
         <v>6.0</v>
@@ -1218,13 +1194,13 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="4">
         <v>3.0</v>
@@ -1235,13 +1211,13 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="4">
         <v>3.0</v>
@@ -1252,13 +1228,13 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="4">
         <v>4.0</v>
@@ -1269,13 +1245,13 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4">
         <v>1.0</v>
@@ -1286,13 +1262,13 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="4">
         <v>2.0</v>
@@ -1306,10 +1282,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4">
         <v>4.0</v>
@@ -1320,13 +1296,13 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4">
         <v>3.0</v>
@@ -1340,10 +1316,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4">
         <v>2.0</v>
@@ -1354,13 +1330,13 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4">
         <v>1.0</v>
@@ -1371,13 +1347,13 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4">
         <v>1.0</v>
@@ -1388,13 +1364,13 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="4">
         <v>3.0</v>
@@ -1405,13 +1381,13 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="4">
         <v>2.0</v>
@@ -1428,7 +1404,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="4">
         <v>1.0</v>
@@ -1445,7 +1421,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="4">
         <v>1.0</v>
@@ -1459,10 +1435,10 @@
         <v>10.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" s="4">
         <v>2.0</v>
@@ -1476,10 +1452,10 @@
         <v>100.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D20" s="4">
         <v>1.0</v>
@@ -1490,240 +1466,240 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4">
         <v>5.0</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D22" s="4">
         <v>2.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D23" s="4">
         <v>1.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D24" s="4">
         <v>2.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D25" s="4">
         <v>1.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D26" s="4">
         <v>1.0</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D27" s="4">
         <v>1.0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="4">
         <v>2.0</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D29" s="4">
         <v>1.0</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D30" s="4">
         <v>3.0</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D31" s="4">
         <v>1.0</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D32" s="4">
         <v>3.0</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D33" s="4">
         <v>2.0</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D34" s="4">
         <v>3.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1786,15 +1762,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="12">
         <v>10.0</v>
@@ -1802,7 +1778,7 @@
     </row>
     <row r="3">
       <c r="A3" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B3" s="12">
         <v>10.0</v>
@@ -1810,7 +1786,7 @@
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12">
         <v>10.0</v>
@@ -1818,7 +1794,7 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="12">
         <v>10.0</v>
@@ -1826,7 +1802,7 @@
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B6" s="12">
         <v>10.0</v>
@@ -1834,7 +1810,7 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B7" s="12">
         <v>10.0</v>
@@ -1842,7 +1818,7 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B8" s="12">
         <v>10.0</v>
@@ -1850,7 +1826,7 @@
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B9" s="12">
         <v>10.0</v>
@@ -1858,7 +1834,7 @@
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B10" s="12">
         <v>10.0</v>
@@ -1866,7 +1842,7 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B11" s="12">
         <v>10.0</v>
@@ -1874,7 +1850,7 @@
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B12" s="12">
         <v>10.0</v>
@@ -1882,7 +1858,7 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B13" s="12">
         <v>10.0</v>
@@ -1890,7 +1866,7 @@
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B14" s="12">
         <v>10.0</v>
@@ -1898,7 +1874,7 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B15" s="12">
         <v>10.0</v>
@@ -1906,7 +1882,7 @@
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B16" s="12">
         <v>10.0</v>
@@ -1914,7 +1890,7 @@
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B17" s="12">
         <v>10.0</v>
@@ -1922,7 +1898,7 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B18" s="12">
         <v>10.0</v>
@@ -1930,7 +1906,7 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B19" s="12">
         <v>10.0</v>
@@ -1938,7 +1914,7 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B20" s="12">
         <v>10.0</v>
@@ -1946,7 +1922,7 @@
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B21" s="12">
         <v>10.0</v>
@@ -1954,7 +1930,7 @@
     </row>
     <row r="22">
       <c r="A22" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B22" s="12">
         <v>9.0</v>
@@ -1962,7 +1938,7 @@
     </row>
     <row r="23">
       <c r="A23" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B23" s="12">
         <v>1.0</v>
@@ -1970,7 +1946,7 @@
     </row>
     <row r="24">
       <c r="A24" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B24" s="12">
         <v>1.0</v>
@@ -1978,7 +1954,7 @@
     </row>
     <row r="25">
       <c r="A25" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B25" s="12">
         <v>1.0</v>
@@ -1986,7 +1962,7 @@
     </row>
     <row r="26">
       <c r="A26" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B26" s="12">
         <v>1.0</v>
@@ -1994,7 +1970,7 @@
     </row>
     <row r="27">
       <c r="A27" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B27" s="12">
         <v>3.0</v>
@@ -2002,7 +1978,7 @@
     </row>
     <row r="28">
       <c r="A28" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B28" s="12">
         <v>4.0</v>
@@ -2010,7 +1986,7 @@
     </row>
     <row r="29">
       <c r="A29" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B29" s="12">
         <v>1.0</v>
@@ -2018,7 +1994,7 @@
     </row>
     <row r="30">
       <c r="A30" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B30" s="12">
         <v>1.0</v>
@@ -2026,7 +2002,7 @@
     </row>
     <row r="31">
       <c r="A31" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B31" s="12">
         <v>10.0</v>
@@ -2034,7 +2010,7 @@
     </row>
     <row r="32">
       <c r="A32" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B32" s="12">
         <v>2.0</v>
@@ -2042,7 +2018,7 @@
     </row>
     <row r="33">
       <c r="A33" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B33" s="12">
         <v>1.0</v>
@@ -2050,7 +2026,7 @@
     </row>
     <row r="34">
       <c r="A34" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B34" s="12">
         <v>2.0</v>
@@ -2058,7 +2034,7 @@
     </row>
     <row r="35">
       <c r="A35" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B35" s="12">
         <v>1.0</v>
@@ -2066,7 +2042,7 @@
     </row>
     <row r="36">
       <c r="A36" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B36" s="12">
         <v>1.0</v>
@@ -2074,7 +2050,7 @@
     </row>
     <row r="37">
       <c r="A37" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B37" s="12">
         <v>1.0</v>
@@ -2082,7 +2058,7 @@
     </row>
     <row r="38">
       <c r="A38" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B38" s="12">
         <v>10.0</v>
@@ -2090,7 +2066,7 @@
     </row>
     <row r="39">
       <c r="A39" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B39" s="12">
         <v>1.0</v>
@@ -2098,7 +2074,7 @@
     </row>
     <row r="40">
       <c r="A40" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B40" s="12">
         <v>3.0</v>
@@ -2106,7 +2082,7 @@
     </row>
     <row r="41">
       <c r="A41" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B41" s="12">
         <v>1.0</v>
@@ -2114,7 +2090,7 @@
     </row>
     <row r="42">
       <c r="A42" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B42" s="12">
         <v>3.0</v>
@@ -2122,7 +2098,7 @@
     </row>
     <row r="43">
       <c r="A43" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B43" s="12">
         <v>2.0</v>
